--- a/Running projects/Meezan Bank Head Office/PO/009- Purchase order- for valves (fakhri).xlsx
+++ b/Running projects/Meezan Bank Head Office/PO/009- Purchase order- for valves (fakhri).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Meezan Bank Head Office\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14B22B2-3595-4BFD-BC22-49266EC39847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6948B8-1F2B-486D-A49C-686DA7015B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,6 +457,27 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -486,27 +507,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A10:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="F11" s="10">
-        <v>45043</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1155,22 +1155,22 @@
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
@@ -1181,28 +1181,28 @@
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
     </row>
     <row r="18" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:6" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="41"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="48"/>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
@@ -1405,37 +1405,37 @@
     <row r="33" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
       <c r="F33" s="21">
         <f>SUM(F25:F32)</f>
         <v>638634</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="3" customFormat="1" ht="17.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
       <c r="F34" s="22">
         <f>F33*8%</f>
         <v>51090.720000000001</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="3" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
       <c r="F35" s="23">
         <f>F33-F34</f>
         <v>587543.28</v>
@@ -1453,22 +1453,22 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
     </row>
     <row r="40" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
     </row>
     <row r="41" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -1500,55 +1500,55 @@
       <c r="A46"/>
     </row>
     <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="45">
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="35">
         <v>5000000</v>
       </c>
     </row>
     <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="45"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="35"/>
     </row>
     <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
     </row>
     <row r="51" spans="1:6" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
     </row>
     <row r="52" spans="1:6" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="31"/>
-      <c r="C52" s="47" t="s">
+      <c r="C52" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="47"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
     </row>
     <row r="53" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="31"/>
-      <c r="C53" s="47" t="s">
+      <c r="C53" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="47"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
     </row>
     <row r="54" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
@@ -1557,6 +1557,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A39:F40"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A15:F15"/>
     <mergeCell ref="B47:E48"/>
     <mergeCell ref="F47:F48"/>
     <mergeCell ref="B50:E50"/>
@@ -1565,14 +1573,6 @@
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="C51:F51"/>
-    <mergeCell ref="A39:F40"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A15:F15"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
